--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA04_외교부레포트_배혜빈\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DF2CEA-2B6D-41E7-B63E-5176782BDEDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920FC023-380F-4CEE-A985-43575D1A179E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -185,10 +185,6 @@
   </si>
   <si>
     <t>Folder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Mofa_URL</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -254,6 +250,33 @@
   <si>
     <t>rpa.sj.jeong@gmail.com</t>
   </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7월, 8월, 9월, 10월, 11월, 12월</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mofa_Main_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.mofa.go.kr/www/pgm/m_20535/uss/anlrveexptr/mnbyExcut.do</t>
+  </si>
+  <si>
+    <t>월별세출집행현황_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -270,6 +293,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -357,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -373,6 +397,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -699,16 +726,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z995"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="122.140625" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -758,10 +785,10 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
         <v>46</v>
       </c>
@@ -778,120 +805,150 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="A9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="299.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
+    <row r="12" spans="1:26" ht="299.25" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="A13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="27">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="27">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1865,17 +1922,22 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{5143226D-4AFF-4865-B706-F5A73760C336}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{AC77DE23-91FD-421C-8024-DDC635298B64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA04_외교부레포트_배혜빈\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920FC023-380F-4CEE-A985-43575D1A179E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E12958C-957F-4B5A-877A-A3F5B81A2D9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
